--- a/Experiments_lipitor.xlsx
+++ b/Experiments_lipitor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7959,6 +7959,1142 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>160</v>
+      </c>
+      <c r="B471" t="n">
+        <v>2</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.8934888438133874</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>160</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.9161025888971913</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>160</v>
+      </c>
+      <c r="B473" t="n">
+        <v>3</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.8775620001448481</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>160</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.8982856196910598</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>160</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.9091295829834872</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>160</v>
+      </c>
+      <c r="B476" t="n">
+        <v>4</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.8775512281523254</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>160</v>
+      </c>
+      <c r="B477" t="n">
+        <v>4</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.8948257784745055</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>160</v>
+      </c>
+      <c r="B478" t="n">
+        <v>4</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.8811376353342383</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>160</v>
+      </c>
+      <c r="B479" t="n">
+        <v>5</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.8724687990743036</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>160</v>
+      </c>
+      <c r="B480" t="n">
+        <v>5</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.8948053558145301</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>160</v>
+      </c>
+      <c r="B481" t="n">
+        <v>5</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.9162613778333036</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>165</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.8765918833505428</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>165</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.8933633718201446</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>165</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.9165630580735583</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>165</v>
+      </c>
+      <c r="B485" t="n">
+        <v>2</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.8778162111119094</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>165</v>
+      </c>
+      <c r="B486" t="n">
+        <v>2</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.8913442885442434</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>165</v>
+      </c>
+      <c r="B487" t="n">
+        <v>2</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.8968062250225424</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>165</v>
+      </c>
+      <c r="B488" t="n">
+        <v>3</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.8773441723148572</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>165</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.885296685932887</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>165</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.9234681248452935</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>165</v>
+      </c>
+      <c r="B491" t="n">
+        <v>4</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.882960799730428</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>165</v>
+      </c>
+      <c r="B492" t="n">
+        <v>4</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.8900472772201403</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>165</v>
+      </c>
+      <c r="B493" t="n">
+        <v>4</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.9223448336989519</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>165</v>
+      </c>
+      <c r="B494" t="n">
+        <v>5</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.881711153429356</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>165</v>
+      </c>
+      <c r="B495" t="n">
+        <v>5</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.8926846717939546</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>165</v>
+      </c>
+      <c r="B496" t="n">
+        <v>5</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.9221350613915416</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>170</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.8821289175512609</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>170</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.898046353087225</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>170</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.9184311755909916</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>170</v>
+      </c>
+      <c r="B500" t="n">
+        <v>2</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.8785019923583581</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>170</v>
+      </c>
+      <c r="B501" t="n">
+        <v>2</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.8905790643598333</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>170</v>
+      </c>
+      <c r="B502" t="n">
+        <v>2</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.9187304613883777</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>170</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.8810477722746248</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>170</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.8940765744450403</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>170</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.9162083062872239</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>170</v>
+      </c>
+      <c r="B506" t="n">
+        <v>4</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.8802314862234969</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>170</v>
+      </c>
+      <c r="B507" t="n">
+        <v>4</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.8986786848304824</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>170</v>
+      </c>
+      <c r="B508" t="n">
+        <v>4</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.915463230393246</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>170</v>
+      </c>
+      <c r="B509" t="n">
+        <v>5</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.878052624942205</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>170</v>
+      </c>
+      <c r="B510" t="n">
+        <v>5</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.8751523685427263</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>170</v>
+      </c>
+      <c r="B511" t="n">
+        <v>5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.9122948492248282</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>175</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.8841983901164574</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>175</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.8781269502120773</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>175</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.9166733545051191</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>175</v>
+      </c>
+      <c r="B515" t="n">
+        <v>2</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.8854120576644063</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>175</v>
+      </c>
+      <c r="B516" t="n">
+        <v>2</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.8989329409464618</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>175</v>
+      </c>
+      <c r="B517" t="n">
+        <v>2</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.9151753399334054</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>175</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.8809891808346213</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>175</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.8835900442359964</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>175</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.9187859469198254</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>175</v>
+      </c>
+      <c r="B521" t="n">
+        <v>4</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.8780410842194944</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>175</v>
+      </c>
+      <c r="B522" t="n">
+        <v>4</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.8852145193693267</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>175</v>
+      </c>
+      <c r="B523" t="n">
+        <v>4</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.9204345340194396</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>175</v>
+      </c>
+      <c r="B524" t="n">
+        <v>5</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.8797435952132084</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>175</v>
+      </c>
+      <c r="B525" t="n">
+        <v>5</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.8977580579790525</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>175</v>
+      </c>
+      <c r="B526" t="n">
+        <v>5</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.909623209119515</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>180</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.8855850990607494</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>180</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.8880099960820441</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>180</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.9189515156388196</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>180</v>
+      </c>
+      <c r="B530" t="n">
+        <v>2</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.8803171485876651</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>180</v>
+      </c>
+      <c r="B531" t="n">
+        <v>2</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.8958194049807788</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>180</v>
+      </c>
+      <c r="B532" t="n">
+        <v>2</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.9169659954902383</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>180</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.8847599076035468</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>180</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.8874743195341857</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>180</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.9195483171468777</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>180</v>
+      </c>
+      <c r="B536" t="n">
+        <v>4</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.8826085594008211</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>180</v>
+      </c>
+      <c r="B537" t="n">
+        <v>4</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.8893879725480774</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>180</v>
+      </c>
+      <c r="B538" t="n">
+        <v>4</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.9150946606622277</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>180</v>
+      </c>
+      <c r="B539" t="n">
+        <v>5</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.8882753759398496</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>180</v>
+      </c>
+      <c r="B540" t="n">
+        <v>5</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.8991477272727273</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>180</v>
+      </c>
+      <c r="B541" t="n">
+        <v>5</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.9185721867140451</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments_lipitor.xlsx
+++ b/Experiments_lipitor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9095,6 +9095,22 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>180</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.8879713055337793</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
